--- a/QA/Tests/FTP/CRUD/Create/Step3/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/Step3/_Test_Suite_Statistics.xlsx
@@ -53,10 +53,10 @@
     <t>Percentage Automated:</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>SourceFieldPopulation</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -579,23 +579,23 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
